--- a/Data/GP2_FINAL_WEIGHT.xlsx
+++ b/Data/GP2_FINAL_WEIGHT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B02278-C159-456C-B687-F2184C2A06D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B87F7-F722-4D3C-92C9-0BACD4D3725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46041644-3AF4-4E5F-99C5-C935C4B9809B}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{46041644-3AF4-4E5F-99C5-C935C4B9809B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
